--- a/2017/ML/roc/roc_svmR.xlsx
+++ b/2017/ML/roc/roc_svmR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jg_te\PycharmProjects\DDoS_Detection\2017\ML\roc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1718454F-712E-4C2B-AE44-958B0DBE74D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9B5AF2-B521-41A1-A9AD-C8D125BECF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="15">
   <si>
     <t>Time(s)</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>Quant, Ataques Total</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Precision</t>
   </si>
 </sst>
 </file>
@@ -116,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,11 +148,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -155,6 +175,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,15 +481,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="O1" sqref="O1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,8 +529,17 @@
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -549,8 +582,20 @@
       <c r="N2">
         <v>0.56744304618878705</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>I2/(I2+(1/2)*(L2+M2))*100</f>
+        <v>72.403657353741337</v>
+      </c>
+      <c r="P2">
+        <f>100*I2/(I2+M2)</f>
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <f>100*I2/(I2+L2)</f>
+        <v>56.744304618878772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -593,8 +638,20 @@
       <c r="N3">
         <v>0.56744304618878705</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="0">I3/(I3+(1/2)*(L3+M3))*100</f>
+        <v>72.403657353741337</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P10" si="1">100*I3/(I3+M3)</f>
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q10" si="2">100*I3/(I3+L3)</f>
+        <v>56.744304618878772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -637,8 +694,20 @@
       <c r="N4">
         <v>0.56744304618878705</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>72.403657353741337</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>56.744304618878772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -681,8 +750,20 @@
       <c r="N5">
         <v>0.43255695381121201</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -725,8 +806,20 @@
       <c r="N6">
         <v>0.43255695381121201</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -769,8 +862,20 @@
       <c r="N7">
         <v>0.43255695381121201</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -813,8 +918,20 @@
       <c r="N8">
         <v>0.43255695381121201</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -857,8 +974,20 @@
       <c r="N9">
         <v>0.43255695381121201</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -901,23 +1030,39 @@
       <c r="N10">
         <v>0.43255695381121201</v>
       </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="O1" sqref="O1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,8 +1102,17 @@
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1001,8 +1155,20 @@
       <c r="N2">
         <v>0.56716494009131102</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>I2/(I2+(1/2)*(L2+M2))*100</f>
+        <v>72.381014350444246</v>
+      </c>
+      <c r="P2">
+        <f>100*I2/(I2+M2)</f>
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <f>100*I2/(I2+L2)</f>
+        <v>56.716494009131154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1045,8 +1211,20 @@
       <c r="N3">
         <v>0.56716494009131102</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="0">I3/(I3+(1/2)*(L3+M3))*100</f>
+        <v>72.381014350444246</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P10" si="1">100*I3/(I3+M3)</f>
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q10" si="2">100*I3/(I3+L3)</f>
+        <v>56.716494009131154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1089,8 +1267,20 @@
       <c r="N4">
         <v>0.56716494009131102</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>72.381014350444246</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>56.716494009131154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1133,8 +1323,20 @@
       <c r="N5">
         <v>0.43283505990868798</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1177,8 +1379,20 @@
       <c r="N6">
         <v>0.43283505990868798</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1221,8 +1435,20 @@
       <c r="N7">
         <v>0.43283505990868798</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1265,8 +1491,20 @@
       <c r="N8">
         <v>0.43283505990868798</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1309,8 +1547,20 @@
       <c r="N9">
         <v>0.43283505990868798</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1352,6 +1602,18 @@
       </c>
       <c r="N10">
         <v>0.43283505990868798</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -1361,15 +1623,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="O1" sqref="O1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,8 +1671,17 @@
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1453,8 +1724,20 @@
       <c r="N2">
         <v>0.567341073953046</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>I2/(I2+(1/2)*(L2+M2))*100</f>
+        <v>72.395355852205853</v>
+      </c>
+      <c r="P2">
+        <f>100*I2/(I2+M2)</f>
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <f>100*I2/(I2+L2)</f>
+        <v>56.73410739530464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1497,8 +1780,20 @@
       <c r="N3">
         <v>0.567341073953046</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="0">I3/(I3+(1/2)*(L3+M3))*100</f>
+        <v>72.395355852205853</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P10" si="1">100*I3/(I3+M3)</f>
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q10" si="2">100*I3/(I3+L3)</f>
+        <v>56.73410739530464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1541,8 +1836,20 @@
       <c r="N4">
         <v>0.567341073953046</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>72.395355852205853</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>56.73410739530464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1585,8 +1892,20 @@
       <c r="N5">
         <v>0.432658926046953</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1629,8 +1948,20 @@
       <c r="N6">
         <v>0.432658926046953</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1673,8 +2004,20 @@
       <c r="N7">
         <v>0.432658926046953</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1717,8 +2060,20 @@
       <c r="N8">
         <v>0.432658926046953</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1761,8 +2116,20 @@
       <c r="N9">
         <v>0.432658926046953</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1804,6 +2171,18 @@
       </c>
       <c r="N10">
         <v>0.432658926046953</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -1813,15 +2192,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="O1" sqref="O1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1861,8 +2240,17 @@
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1905,8 +2293,20 @@
       <c r="N2">
         <v>0.567368884562794</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>I2/(I2+(1/2)*(L2+M2))*100</f>
+        <v>72.397620005204757</v>
+      </c>
+      <c r="P2">
+        <f>100*I2/(I2+M2)</f>
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <f>100*I2/(I2+L2)</f>
+        <v>56.736888456279402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1949,8 +2349,20 @@
       <c r="N3">
         <v>0.567368884562794</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="0">I3/(I3+(1/2)*(L3+M3))*100</f>
+        <v>72.397620005204757</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P10" si="1">100*I3/(I3+M3)</f>
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q10" si="2">100*I3/(I3+L3)</f>
+        <v>56.736888456279402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1993,8 +2405,20 @@
       <c r="N4">
         <v>0.567368884562794</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>72.397620005204757</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>56.736888456279402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2037,8 +2461,20 @@
       <c r="N5">
         <v>0.432631115437205</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2081,8 +2517,20 @@
       <c r="N6">
         <v>0.432631115437205</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2125,8 +2573,20 @@
       <c r="N7">
         <v>0.432631115437205</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2169,8 +2629,20 @@
       <c r="N8">
         <v>0.432631115437205</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2213,8 +2685,20 @@
       <c r="N9">
         <v>0.432631115437205</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2256,6 +2740,18 @@
       </c>
       <c r="N10">
         <v>0.432631115437205</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -2265,15 +2761,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N1"/>
+      <selection activeCell="O1" sqref="O1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2313,8 +2809,17 @@
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2357,8 +2862,20 @@
       <c r="N2">
         <v>0.56705833275394502</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>I2/(I2+(1/2)*(L2+M2))*100</f>
+        <v>72.372332401614983</v>
+      </c>
+      <c r="P2">
+        <f>100*I2/(I2+M2)</f>
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <f>100*I2/(I2+L2)</f>
+        <v>56.705833275394561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2401,8 +2918,20 @@
       <c r="N3">
         <v>0.56705833275394502</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f t="shared" ref="O3:O10" si="0">I3/(I3+(1/2)*(L3+M3))*100</f>
+        <v>72.372332401614983</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P10" si="1">100*I3/(I3+M3)</f>
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q10" si="2">100*I3/(I3+L3)</f>
+        <v>56.705833275394561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2445,8 +2974,20 @@
       <c r="N4">
         <v>0.56705833275394502</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>72.372332401614983</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>56.705833275394561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2489,8 +3030,20 @@
       <c r="N5">
         <v>0.43294166724605398</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2533,8 +3086,20 @@
       <c r="N6">
         <v>0.43294166724605398</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2577,8 +3142,20 @@
       <c r="N7">
         <v>0.43294166724605398</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2621,8 +3198,20 @@
       <c r="N8">
         <v>0.43294166724605398</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2665,8 +3254,20 @@
       <c r="N9">
         <v>0.43294166724605398</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2708,6 +3309,18 @@
       </c>
       <c r="N10" s="5">
         <v>0.43294100000000002</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -2718,15 +3331,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2766,8 +3379,17 @@
       <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2823,8 +3445,20 @@
         <f>AVERAGE('Test 0'!N2,'Test 1'!N2,'Test 2'!N2,'Test 3'!N2,'Test 4'!N2)</f>
         <v>0.56727525550997659</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>AVERAGE('Test 0'!O2,'Test 1'!O2,'Test 2'!O2,'Test 3'!O2,'Test 4'!O2)</f>
+        <v>72.389995992642241</v>
+      </c>
+      <c r="P2">
+        <f>AVERAGE('Test 0'!P2,'Test 1'!P2,'Test 2'!P2,'Test 3'!P2,'Test 4'!P2)</f>
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <f>AVERAGE('Test 0'!Q2,'Test 1'!Q2,'Test 2'!Q2,'Test 3'!Q2,'Test 4'!Q2)</f>
+        <v>56.727525550997711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2880,8 +3514,20 @@
         <f>AVERAGE('Test 0'!N3,'Test 1'!N3,'Test 2'!N3,'Test 3'!N3,'Test 4'!N3)</f>
         <v>0.56727525550997659</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f>AVERAGE('Test 0'!O3,'Test 1'!O3,'Test 2'!O3,'Test 3'!O3,'Test 4'!O3)</f>
+        <v>72.389995992642241</v>
+      </c>
+      <c r="P3">
+        <f>AVERAGE('Test 0'!P3,'Test 1'!P3,'Test 2'!P3,'Test 3'!P3,'Test 4'!P3)</f>
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <f>AVERAGE('Test 0'!Q3,'Test 1'!Q3,'Test 2'!Q3,'Test 3'!Q3,'Test 4'!Q3)</f>
+        <v>56.727525550997711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2937,8 +3583,20 @@
         <f>AVERAGE('Test 0'!N4,'Test 1'!N4,'Test 2'!N4,'Test 3'!N4,'Test 4'!N4)</f>
         <v>0.56727525550997659</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f>AVERAGE('Test 0'!O4,'Test 1'!O4,'Test 2'!O4,'Test 3'!O4,'Test 4'!O4)</f>
+        <v>72.389995992642241</v>
+      </c>
+      <c r="P4">
+        <f>AVERAGE('Test 0'!P4,'Test 1'!P4,'Test 2'!P4,'Test 3'!P4,'Test 4'!P4)</f>
+        <v>100</v>
+      </c>
+      <c r="Q4">
+        <f>AVERAGE('Test 0'!Q4,'Test 1'!Q4,'Test 2'!Q4,'Test 3'!Q4,'Test 4'!Q4)</f>
+        <v>56.727525550997711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2994,8 +3652,20 @@
         <f>AVERAGE('Test 0'!N5,'Test 1'!N5,'Test 2'!N5,'Test 3'!N5,'Test 4'!N5)</f>
         <v>0.43272474449002241</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f>AVERAGE('Test 0'!O5,'Test 1'!O5,'Test 2'!O5,'Test 3'!O5,'Test 4'!O5)</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>AVERAGE('Test 0'!P5,'Test 1'!P5,'Test 2'!P5,'Test 3'!P5,'Test 4'!P5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="e">
+        <f>AVERAGE('Test 0'!Q5,'Test 1'!Q5,'Test 2'!Q5,'Test 3'!Q5,'Test 4'!Q5)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3051,8 +3721,20 @@
         <f>AVERAGE('Test 0'!N6,'Test 1'!N6,'Test 2'!N6,'Test 3'!N6,'Test 4'!N6)</f>
         <v>0.43272474449002241</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f>AVERAGE('Test 0'!O6,'Test 1'!O6,'Test 2'!O6,'Test 3'!O6,'Test 4'!O6)</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>AVERAGE('Test 0'!P6,'Test 1'!P6,'Test 2'!P6,'Test 3'!P6,'Test 4'!P6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="e">
+        <f>AVERAGE('Test 0'!Q6,'Test 1'!Q6,'Test 2'!Q6,'Test 3'!Q6,'Test 4'!Q6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3108,8 +3790,20 @@
         <f>AVERAGE('Test 0'!N7,'Test 1'!N7,'Test 2'!N7,'Test 3'!N7,'Test 4'!N7)</f>
         <v>0.43272474449002241</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f>AVERAGE('Test 0'!O7,'Test 1'!O7,'Test 2'!O7,'Test 3'!O7,'Test 4'!O7)</f>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f>AVERAGE('Test 0'!P7,'Test 1'!P7,'Test 2'!P7,'Test 3'!P7,'Test 4'!P7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" t="e">
+        <f>AVERAGE('Test 0'!Q7,'Test 1'!Q7,'Test 2'!Q7,'Test 3'!Q7,'Test 4'!Q7)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3165,8 +3859,20 @@
         <f>AVERAGE('Test 0'!N8,'Test 1'!N8,'Test 2'!N8,'Test 3'!N8,'Test 4'!N8)</f>
         <v>0.43272474449002241</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f>AVERAGE('Test 0'!O8,'Test 1'!O8,'Test 2'!O8,'Test 3'!O8,'Test 4'!O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>AVERAGE('Test 0'!P8,'Test 1'!P8,'Test 2'!P8,'Test 3'!P8,'Test 4'!P8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="e">
+        <f>AVERAGE('Test 0'!Q8,'Test 1'!Q8,'Test 2'!Q8,'Test 3'!Q8,'Test 4'!Q8)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3222,8 +3928,20 @@
         <f>AVERAGE('Test 0'!N9,'Test 1'!N9,'Test 2'!N9,'Test 3'!N9,'Test 4'!N9)</f>
         <v>0.43272474449002241</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f>AVERAGE('Test 0'!O9,'Test 1'!O9,'Test 2'!O9,'Test 3'!O9,'Test 4'!O9)</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>AVERAGE('Test 0'!P9,'Test 1'!P9,'Test 2'!P9,'Test 3'!P9,'Test 4'!P9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" t="e">
+        <f>AVERAGE('Test 0'!Q9,'Test 1'!Q9,'Test 2'!Q9,'Test 3'!Q9,'Test 4'!Q9)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3279,11 +3997,23 @@
         <f>AVERAGE('Test 0'!N10,'Test 1'!N10,'Test 2'!N10,'Test 3'!N10,'Test 4'!N10)</f>
         <v>0.43272461104081161</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f>AVERAGE('Test 0'!O10,'Test 1'!O10,'Test 2'!O10,'Test 3'!O10,'Test 4'!O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>AVERAGE('Test 0'!P10,'Test 1'!P10,'Test 2'!P10,'Test 3'!P10,'Test 4'!P10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="e">
+        <f>AVERAGE('Test 0'!Q10,'Test 1'!Q10,'Test 2'!Q10,'Test 3'!Q10,'Test 4'!Q10)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F15" s="6"/>
     </row>
   </sheetData>
